--- a/demo/out.xlsx
+++ b/demo/out.xlsx
@@ -465,7 +465,7 @@
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="4">
-        <v>45955.61396190972</v>
+        <v>45955.62441027778</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
